--- a/02_food_analysis/analysis/20180717/output/only_gokryu_frist.xlsx
+++ b/02_food_analysis/analysis/20180717/output/only_gokryu_frist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="608">
   <si>
     <t>code</t>
   </si>
@@ -1840,6 +1840,10 @@
   </si>
   <si>
     <t>호밀빵</t>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2239,15 +2243,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:I297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="26.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2258,19 +2266,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2284,19 +2295,22 @@
         <v>9</v>
       </c>
       <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
         <v>332</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>73.5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11.4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3.7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2310,19 +2324,22 @@
         <v>11</v>
       </c>
       <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
         <v>334</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>70.400000000000006</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>14.3</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2336,19 +2353,22 @@
         <v>13</v>
       </c>
       <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
         <v>348</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>64.900000000000006</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>13.2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2362,19 +2382,22 @@
         <v>15</v>
       </c>
       <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
         <v>360</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>74.599999999999994</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>11.2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2388,19 +2411,22 @@
         <v>17</v>
       </c>
       <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
         <v>365</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>71.91</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>12.46</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.09</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2414,19 +2440,22 @@
         <v>19</v>
       </c>
       <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
         <v>345</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>67.84</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>13.64</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2440,19 +2469,22 @@
         <v>21</v>
       </c>
       <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
         <v>355</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>71.36</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>12.96</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3.29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2466,19 +2498,22 @@
         <v>23</v>
       </c>
       <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
         <v>274</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>61.14</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>7.59</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.96</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2492,19 +2527,22 @@
         <v>25</v>
       </c>
       <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
         <v>117</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>25.73</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3.54</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2518,19 +2556,22 @@
         <v>27</v>
       </c>
       <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
         <v>352</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>74.41</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>13.58</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2544,19 +2585,22 @@
         <v>29</v>
       </c>
       <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
         <v>108</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>22.65</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4.28</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2570,19 +2614,22 @@
         <v>31</v>
       </c>
       <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
         <v>339</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>73.66</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10.74</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2596,19 +2643,22 @@
         <v>33</v>
       </c>
       <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
         <v>132</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>28.71</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4.22</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2622,19 +2672,22 @@
         <v>35</v>
       </c>
       <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
         <v>55</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>12.8</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.86</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2648,19 +2701,22 @@
         <v>37</v>
       </c>
       <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
         <v>348</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>77.39</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>8.33</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.04</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2674,19 +2730,22 @@
         <v>39</v>
       </c>
       <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
         <v>357</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>75.8</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>6.5</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2700,19 +2759,22 @@
         <v>42</v>
       </c>
       <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
         <v>345</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>79.5</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>6.4</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2726,19 +2788,22 @@
         <v>44</v>
       </c>
       <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
         <v>362</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>78.5</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>6.2</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2752,19 +2817,22 @@
         <v>46</v>
       </c>
       <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
         <v>344</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>79.099999999999994</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>6.9</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2778,19 +2846,22 @@
         <v>48</v>
       </c>
       <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
         <v>363</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>76.400000000000006</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>8.9</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2.7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2804,19 +2875,22 @@
         <v>50</v>
       </c>
       <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
         <v>332</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>73.3</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>9.6</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2830,19 +2904,22 @@
         <v>52</v>
       </c>
       <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
         <v>346</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>79.2</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5.6</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1.9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2856,19 +2933,22 @@
         <v>54</v>
       </c>
       <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
         <v>325</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>75.3</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>5.8</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>4.8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2882,19 +2962,22 @@
         <v>56</v>
       </c>
       <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
         <v>347</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>81.2</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5.7</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2908,19 +2991,22 @@
         <v>58</v>
       </c>
       <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
         <v>324</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>79.400000000000006</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>7</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2934,19 +3020,22 @@
         <v>60</v>
       </c>
       <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
         <v>357</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>74.5</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2960,19 +3049,22 @@
         <v>62</v>
       </c>
       <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
         <v>358</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>73.400000000000006</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>9.5</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2986,19 +3078,22 @@
         <v>64</v>
       </c>
       <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
         <v>348</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>80.900000000000006</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6.1</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3012,19 +3107,22 @@
         <v>66</v>
       </c>
       <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
         <v>329</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>76.7</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>5.7</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3038,19 +3136,22 @@
         <v>68</v>
       </c>
       <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
         <v>355</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>79.3</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>7.7</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3064,19 +3165,22 @@
         <v>70</v>
       </c>
       <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
         <v>310</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>76.2</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>9</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3090,19 +3194,22 @@
         <v>72</v>
       </c>
       <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
         <v>348</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>81.8</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>5</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3116,19 +3223,22 @@
         <v>74</v>
       </c>
       <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
         <v>336</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>78.5</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>5.7</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3142,19 +3252,22 @@
         <v>76</v>
       </c>
       <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
         <v>317</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>77.8</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>7.4</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3168,19 +3281,22 @@
         <v>78</v>
       </c>
       <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
         <v>344</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>78.900000000000006</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>6.7</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3194,19 +3310,22 @@
         <v>80</v>
       </c>
       <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
         <v>356</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>81.400000000000006</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>6.7</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3220,19 +3339,22 @@
         <v>82</v>
       </c>
       <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
         <v>316</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>76.900000000000006</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>6.4</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2.7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3246,19 +3368,22 @@
         <v>84</v>
       </c>
       <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
         <v>357</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>81.400000000000006</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>6.3</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3272,19 +3397,22 @@
         <v>86</v>
       </c>
       <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
         <v>325</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>77.900000000000006</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>7.3</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3298,19 +3426,22 @@
         <v>88</v>
       </c>
       <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
         <v>348</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>80.099999999999994</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>7</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3324,19 +3455,22 @@
         <v>90</v>
       </c>
       <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
         <v>358</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>80.3</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3350,19 +3484,22 @@
         <v>92</v>
       </c>
       <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
         <v>318</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>77.2</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>8.9</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>1.6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3376,19 +3513,22 @@
         <v>94</v>
       </c>
       <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
         <v>349</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>80.3</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>5.5</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3402,19 +3542,22 @@
         <v>96</v>
       </c>
       <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
         <v>351</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>79.900000000000006</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>7</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3428,19 +3571,22 @@
         <v>98</v>
       </c>
       <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
         <v>353</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>81.7</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>6.4</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3454,19 +3600,22 @@
         <v>100</v>
       </c>
       <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
         <v>312</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>75.31</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>7.59</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>2.31</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3480,19 +3629,22 @@
         <v>102</v>
       </c>
       <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
         <v>324</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>77.7</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>7.9</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>2.6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3506,19 +3658,22 @@
         <v>104</v>
       </c>
       <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
         <v>347</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>80</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>6.5</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3532,19 +3687,22 @@
         <v>106</v>
       </c>
       <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
         <v>337</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>77.27</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>6.07</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>0.67</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3558,19 +3716,22 @@
         <v>108</v>
       </c>
       <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
         <v>310</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>77.239999999999995</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>6.16</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3584,19 +3745,22 @@
         <v>110</v>
       </c>
       <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52">
         <v>337</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>77.2</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>5.91</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>0.73</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3610,19 +3774,22 @@
         <v>112</v>
       </c>
       <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53">
         <v>299</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>73.89</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>6.3</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>1.94</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3636,19 +3803,22 @@
         <v>114</v>
       </c>
       <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54">
         <v>469</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>78.2</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>3.2</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>15.9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3662,19 +3832,22 @@
         <v>116</v>
       </c>
       <c r="E55">
+        <v>100</v>
+      </c>
+      <c r="F55">
         <v>393</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>80.7</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>3.9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3688,19 +3861,22 @@
         <v>118</v>
       </c>
       <c r="E56">
+        <v>100</v>
+      </c>
+      <c r="F56">
         <v>395</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>89.96</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>4.1100000000000003</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>2.13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3714,19 +3890,22 @@
         <v>120</v>
       </c>
       <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57">
         <v>340</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>72.599999999999994</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>9.1</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>1.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3740,19 +3919,22 @@
         <v>122</v>
       </c>
       <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58">
         <v>213</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>48.8</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>3.71</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>0.37</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3766,19 +3948,22 @@
         <v>124</v>
       </c>
       <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59">
         <v>205</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>47.8</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>3.5</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3792,19 +3977,22 @@
         <v>126</v>
       </c>
       <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60">
         <v>207</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>45.6</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>4.3</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>0.8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3818,19 +4006,22 @@
         <v>128</v>
       </c>
       <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61">
         <v>206</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>45.2</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>4.5</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>0.8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3844,19 +4035,22 @@
         <v>130</v>
       </c>
       <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62">
         <v>210</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>46.14</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>3.09</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>1.46</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3870,19 +4064,22 @@
         <v>132</v>
       </c>
       <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63">
         <v>229</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>53</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>3.5</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3896,19 +4093,22 @@
         <v>134</v>
       </c>
       <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64">
         <v>228</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>52.5</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>3.6</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>0.4</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3922,19 +4122,22 @@
         <v>136</v>
       </c>
       <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65">
         <v>229</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>48.31</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>5.75</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>1.46</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3948,19 +4151,22 @@
         <v>138</v>
       </c>
       <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66">
         <v>200</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>41.2</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>6.9</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>0.8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3974,19 +4180,22 @@
         <v>140</v>
       </c>
       <c r="E67">
+        <v>100</v>
+      </c>
+      <c r="F67">
         <v>200</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>43.6</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>5.4</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>0.4</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4000,19 +4209,22 @@
         <v>142</v>
       </c>
       <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
         <v>224</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>44.01</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>5.9</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>2.74</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4026,19 +4238,22 @@
         <v>144</v>
       </c>
       <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="F69">
         <v>190</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>40.64</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>5.28</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>0.65</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4052,19 +4267,22 @@
         <v>146</v>
       </c>
       <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70">
         <v>190</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>39.89</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>6.03</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>0.67</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4078,19 +4296,22 @@
         <v>148</v>
       </c>
       <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="F71">
         <v>183</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>38.94</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>5.83</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>0.41</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4104,19 +4325,22 @@
         <v>150</v>
       </c>
       <c r="E72">
+        <v>100</v>
+      </c>
+      <c r="F72">
         <v>215</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>49.04</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>3.69</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>0.49</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4130,19 +4354,22 @@
         <v>152</v>
       </c>
       <c r="E73">
+        <v>100</v>
+      </c>
+      <c r="F73">
         <v>198</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>45.23</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>2.99</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4156,19 +4383,22 @@
         <v>154</v>
       </c>
       <c r="E74">
+        <v>100</v>
+      </c>
+      <c r="F74">
         <v>191</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>44.07</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>3.04</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4182,19 +4412,22 @@
         <v>156</v>
       </c>
       <c r="E75">
+        <v>100</v>
+      </c>
+      <c r="F75">
         <v>21</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>4.7</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>0.3</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4208,19 +4441,22 @@
         <v>159</v>
       </c>
       <c r="E76">
+        <v>100</v>
+      </c>
+      <c r="F76">
         <v>21</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>0.3</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4234,19 +4470,22 @@
         <v>161</v>
       </c>
       <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="F77">
         <v>20</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>0.4</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4260,19 +4499,22 @@
         <v>163</v>
       </c>
       <c r="E78">
+        <v>100</v>
+      </c>
+      <c r="F78">
         <v>354</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>83.7</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>5.2</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4286,19 +4528,22 @@
         <v>165</v>
       </c>
       <c r="E79">
+        <v>100</v>
+      </c>
+      <c r="F79">
         <v>374</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>86.8</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>6.8</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0.2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4312,19 +4557,22 @@
         <v>167</v>
       </c>
       <c r="E80">
+        <v>100</v>
+      </c>
+      <c r="F80">
         <v>145</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>33.200000000000003</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>3</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4338,19 +4586,22 @@
         <v>169</v>
       </c>
       <c r="E81">
+        <v>100</v>
+      </c>
+      <c r="F81">
         <v>168</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>36.700000000000003</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>2.6</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4364,19 +4615,22 @@
         <v>171</v>
       </c>
       <c r="E82">
+        <v>100</v>
+      </c>
+      <c r="F82">
         <v>145</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>37.299999999999997</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>3.3</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>0.2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4390,19 +4644,22 @@
         <v>173</v>
       </c>
       <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83">
         <v>202</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>48.5</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4416,19 +4673,22 @@
         <v>175</v>
       </c>
       <c r="E84">
+        <v>100</v>
+      </c>
+      <c r="F84">
         <v>191</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>46.2</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>2.5</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>0.2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4442,19 +4702,22 @@
         <v>177</v>
       </c>
       <c r="E85">
+        <v>100</v>
+      </c>
+      <c r="F85">
         <v>173</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>46.1</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>2.8</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>0.2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4468,19 +4731,22 @@
         <v>179</v>
       </c>
       <c r="E86">
+        <v>100</v>
+      </c>
+      <c r="F86">
         <v>168</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>36.1</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>3.5</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4494,19 +4760,22 @@
         <v>181</v>
       </c>
       <c r="E87">
+        <v>100</v>
+      </c>
+      <c r="F87">
         <v>168</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>35.700000000000003</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>3.6</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4520,19 +4789,22 @@
         <v>183</v>
       </c>
       <c r="E88">
+        <v>100</v>
+      </c>
+      <c r="F88">
         <v>164</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>184</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>185</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4546,19 +4818,22 @@
         <v>188</v>
       </c>
       <c r="E89">
+        <v>100</v>
+      </c>
+      <c r="F89">
         <v>145</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>33.799999999999997</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>2.5</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4572,16 +4847,19 @@
         <v>190</v>
       </c>
       <c r="E90">
+        <v>100</v>
+      </c>
+      <c r="F90">
         <v>151</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>35.700000000000003</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>2.4</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4595,19 +4873,22 @@
         <v>192</v>
       </c>
       <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91">
         <v>149</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>34.6</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>2.6</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4621,16 +4902,19 @@
         <v>194</v>
       </c>
       <c r="E92">
+        <v>100</v>
+      </c>
+      <c r="F92">
         <v>144</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>33.700000000000003</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>2.4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4644,19 +4928,22 @@
         <v>196</v>
       </c>
       <c r="E93">
+        <v>100</v>
+      </c>
+      <c r="F93">
         <v>395</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>90.98</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>6.64</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>0.84</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4670,19 +4957,22 @@
         <v>198</v>
       </c>
       <c r="E94">
+        <v>100</v>
+      </c>
+      <c r="F94">
         <v>66</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>15.06</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>1.32</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4696,19 +4986,22 @@
         <v>200</v>
       </c>
       <c r="E95">
+        <v>100</v>
+      </c>
+      <c r="F95">
         <v>150</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>33.76</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>2.83</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>0.38</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4722,19 +5015,22 @@
         <v>202</v>
       </c>
       <c r="E96">
+        <v>100</v>
+      </c>
+      <c r="F96">
         <v>144</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>33.590000000000003</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>2.11</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4748,19 +5044,22 @@
         <v>204</v>
       </c>
       <c r="E97">
+        <v>100</v>
+      </c>
+      <c r="F97">
         <v>68</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>15.6</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>1.4</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4774,19 +5073,22 @@
         <v>206</v>
       </c>
       <c r="E98">
+        <v>100</v>
+      </c>
+      <c r="F98">
         <v>70</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>15.2</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>1.2</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>0.4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4800,19 +5102,22 @@
         <v>208</v>
       </c>
       <c r="E99">
+        <v>100</v>
+      </c>
+      <c r="F99">
         <v>71</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>15.6</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>0.2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4826,19 +5131,22 @@
         <v>210</v>
       </c>
       <c r="E100">
+        <v>100</v>
+      </c>
+      <c r="F100">
         <v>330</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>74.599999999999994</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>13.2</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -4852,19 +5160,22 @@
         <v>212</v>
       </c>
       <c r="E101">
+        <v>100</v>
+      </c>
+      <c r="F101">
         <v>321</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>75.8</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>10.6</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4878,19 +5189,22 @@
         <v>214</v>
       </c>
       <c r="E102">
+        <v>100</v>
+      </c>
+      <c r="F102">
         <v>322</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>72.89</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>13.59</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4904,19 +5218,22 @@
         <v>216</v>
       </c>
       <c r="E103">
+        <v>100</v>
+      </c>
+      <c r="F103">
         <v>317</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>71.7</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>13.06</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>1.28</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4930,19 +5247,22 @@
         <v>218</v>
       </c>
       <c r="E104">
+        <v>100</v>
+      </c>
+      <c r="F104">
         <v>412</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>73.900000000000006</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>8.5</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>6.8</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -4956,19 +5276,22 @@
         <v>220</v>
       </c>
       <c r="E105">
+        <v>100</v>
+      </c>
+      <c r="F105">
         <v>382</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>77.73</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>9.15</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>0.94</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4982,19 +5305,22 @@
         <v>222</v>
       </c>
       <c r="E106">
+        <v>100</v>
+      </c>
+      <c r="F106">
         <v>378</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>77.5</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>0.8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5008,19 +5334,22 @@
         <v>224</v>
       </c>
       <c r="E107">
+        <v>100</v>
+      </c>
+      <c r="F107">
         <v>376</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>75.52</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>0.98</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5034,19 +5363,22 @@
         <v>226</v>
       </c>
       <c r="E108">
+        <v>100</v>
+      </c>
+      <c r="F108">
         <v>400</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>77.040000000000006</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>11.95</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5060,19 +5392,22 @@
         <v>228</v>
       </c>
       <c r="E109">
+        <v>100</v>
+      </c>
+      <c r="F109">
         <v>322</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>74.2</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>11.3</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>1.6</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5086,19 +5421,22 @@
         <v>230</v>
       </c>
       <c r="E110">
+        <v>100</v>
+      </c>
+      <c r="F110">
         <v>383</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>76.64</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>10.34</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>1.01</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5112,19 +5450,22 @@
         <v>232</v>
       </c>
       <c r="E111">
+        <v>100</v>
+      </c>
+      <c r="F111">
         <v>380</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>77</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>9.4</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5138,19 +5479,22 @@
         <v>234</v>
       </c>
       <c r="E112">
+        <v>100</v>
+      </c>
+      <c r="F112">
         <v>372</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>71.5</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>11.9</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>1.6</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5164,19 +5508,22 @@
         <v>236</v>
       </c>
       <c r="E113">
+        <v>100</v>
+      </c>
+      <c r="F113">
         <v>376</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>78.41</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>7.22</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>0.8</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5190,19 +5537,22 @@
         <v>238</v>
       </c>
       <c r="E114">
+        <v>100</v>
+      </c>
+      <c r="F114">
         <v>402</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>75.900000000000006</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>7.9</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5216,19 +5566,22 @@
         <v>240</v>
       </c>
       <c r="E115">
+        <v>100</v>
+      </c>
+      <c r="F115">
         <v>317</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>72.5</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>12.9</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>0.9</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5242,19 +5595,22 @@
         <v>242</v>
       </c>
       <c r="E116">
+        <v>100</v>
+      </c>
+      <c r="F116">
         <v>323</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>71.16</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>13.74</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>1.91</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5268,19 +5624,22 @@
         <v>244</v>
       </c>
       <c r="E117">
+        <v>100</v>
+      </c>
+      <c r="F117">
         <v>419</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>75.37</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>9.92</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>8.67</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5294,19 +5653,22 @@
         <v>246</v>
       </c>
       <c r="E118">
+        <v>100</v>
+      </c>
+      <c r="F118">
         <v>330</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>70.86</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>6.35</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>2.39</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5320,19 +5682,22 @@
         <v>248</v>
       </c>
       <c r="E119">
+        <v>100</v>
+      </c>
+      <c r="F119">
         <v>346</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>82.62</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>3.35</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5346,19 +5711,22 @@
         <v>250</v>
       </c>
       <c r="E120">
+        <v>100</v>
+      </c>
+      <c r="F120">
         <v>534</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>62.63</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>6.68</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>28.58</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -5372,19 +5740,22 @@
         <v>252</v>
       </c>
       <c r="E121">
+        <v>100</v>
+      </c>
+      <c r="F121">
         <v>489</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>60.34</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>5.7</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>24.93</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5398,19 +5769,22 @@
         <v>254</v>
       </c>
       <c r="E122">
+        <v>100</v>
+      </c>
+      <c r="F122">
         <v>471</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>64.98</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>5.5</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -5424,19 +5798,22 @@
         <v>256</v>
       </c>
       <c r="E123">
+        <v>100</v>
+      </c>
+      <c r="F123">
         <v>398</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>257</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>7.5</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>3.5</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5450,19 +5827,22 @@
         <v>259</v>
       </c>
       <c r="E124">
+        <v>100</v>
+      </c>
+      <c r="F124">
         <v>420</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>82.8</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>6.7</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>6.9</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -5476,19 +5856,22 @@
         <v>261</v>
       </c>
       <c r="E125">
+        <v>100</v>
+      </c>
+      <c r="F125">
         <v>494</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>66.319999999999993</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>6.04</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>22.77</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -5502,19 +5885,22 @@
         <v>263</v>
       </c>
       <c r="E126">
+        <v>100</v>
+      </c>
+      <c r="F126">
         <v>536</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>60.92</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>4.95</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>30.33</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -5528,19 +5914,22 @@
         <v>265</v>
       </c>
       <c r="E127">
+        <v>100</v>
+      </c>
+      <c r="F127">
         <v>520</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>65.73</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>5.25</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>26.27</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -5554,19 +5943,22 @@
         <v>267</v>
       </c>
       <c r="E128">
+        <v>100</v>
+      </c>
+      <c r="F128">
         <v>422</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>71.7</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>3.8</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>13.3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -5580,19 +5972,22 @@
         <v>269</v>
       </c>
       <c r="E129">
+        <v>100</v>
+      </c>
+      <c r="F129">
         <v>428</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>65.7</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>4.5</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>16.3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -5606,19 +6001,22 @@
         <v>271</v>
       </c>
       <c r="E130">
+        <v>100</v>
+      </c>
+      <c r="F130">
         <v>291</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>32.9</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>7.9</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>14.1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -5632,19 +6030,22 @@
         <v>273</v>
       </c>
       <c r="E131">
+        <v>100</v>
+      </c>
+      <c r="F131">
         <v>287</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>57.3</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>4.8</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>4.2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5658,19 +6059,22 @@
         <v>275</v>
       </c>
       <c r="E132">
+        <v>100</v>
+      </c>
+      <c r="F132">
         <v>252</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>38.1</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>7.3</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>7.9</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -5684,19 +6088,22 @@
         <v>277</v>
       </c>
       <c r="E133">
+        <v>100</v>
+      </c>
+      <c r="F133">
         <v>521</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>65.599999999999994</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>26.9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5710,19 +6117,22 @@
         <v>279</v>
       </c>
       <c r="E134">
+        <v>100</v>
+      </c>
+      <c r="F134">
         <v>501</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>70.2</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>4.3</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>22.5</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -5736,19 +6146,22 @@
         <v>281</v>
       </c>
       <c r="E135">
+        <v>100</v>
+      </c>
+      <c r="F135">
         <v>428</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>67.59</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>4.29</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>15.57</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -5762,19 +6175,22 @@
         <v>283</v>
       </c>
       <c r="E136">
+        <v>100</v>
+      </c>
+      <c r="F136">
         <v>471</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>72.73</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>6.48</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>17.170000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -5788,19 +6204,22 @@
         <v>285</v>
       </c>
       <c r="E137">
+        <v>100</v>
+      </c>
+      <c r="F137">
         <v>493</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>67.97</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>8.36</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>20.87</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -5814,19 +6233,22 @@
         <v>287</v>
       </c>
       <c r="E138">
+        <v>100</v>
+      </c>
+      <c r="F138">
         <v>494</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>71.38</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>5.92</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>20.55</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -5840,19 +6262,22 @@
         <v>289</v>
       </c>
       <c r="E139">
+        <v>100</v>
+      </c>
+      <c r="F139">
         <v>512</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>66.47</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>6.37</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>24.52</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -5866,19 +6291,22 @@
         <v>291</v>
       </c>
       <c r="E140">
+        <v>100</v>
+      </c>
+      <c r="F140">
         <v>513</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>58.8</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>7</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>27.8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -5892,19 +6320,22 @@
         <v>293</v>
       </c>
       <c r="E141">
+        <v>100</v>
+      </c>
+      <c r="F141">
         <v>524</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>64.23</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>7.66</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>26.24</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -5918,19 +6349,22 @@
         <v>295</v>
       </c>
       <c r="E142">
+        <v>100</v>
+      </c>
+      <c r="F142">
         <v>497</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>68.239999999999995</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>6.08</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>22.23</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -5944,19 +6378,22 @@
         <v>297</v>
       </c>
       <c r="E143">
+        <v>100</v>
+      </c>
+      <c r="F143">
         <v>506</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>68.260000000000005</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>7.38</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>22.62</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -5970,19 +6407,22 @@
         <v>299</v>
       </c>
       <c r="E144">
+        <v>100</v>
+      </c>
+      <c r="F144">
         <v>360</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>43.2</v>
       </c>
-      <c r="G144">
-        <v>8</v>
-      </c>
       <c r="H144">
+        <v>8</v>
+      </c>
+      <c r="I144">
         <v>17.2</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -5996,19 +6436,22 @@
         <v>301</v>
       </c>
       <c r="E145">
+        <v>100</v>
+      </c>
+      <c r="F145">
         <v>383</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>82.29</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>11.06</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>1.07</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6022,19 +6465,22 @@
         <v>303</v>
       </c>
       <c r="E146">
+        <v>100</v>
+      </c>
+      <c r="F146">
         <v>457</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>71.28</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>11.5</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>13.96</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -6048,19 +6494,22 @@
         <v>305</v>
       </c>
       <c r="E147">
+        <v>100</v>
+      </c>
+      <c r="F147">
         <v>297</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>60.09</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>7.25</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>0.87</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -6074,19 +6523,22 @@
         <v>307</v>
       </c>
       <c r="E148">
+        <v>100</v>
+      </c>
+      <c r="F148">
         <v>374</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>74</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>10.31</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>1.3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -6100,19 +6552,22 @@
         <v>309</v>
       </c>
       <c r="E149">
+        <v>100</v>
+      </c>
+      <c r="F149">
         <v>126</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>24.87</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>3.49</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>0.41</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6126,19 +6581,22 @@
         <v>311</v>
       </c>
       <c r="E150">
+        <v>100</v>
+      </c>
+      <c r="F150">
         <v>378</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>74.86</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>10.36</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>1.27</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -6152,19 +6610,22 @@
         <v>313</v>
       </c>
       <c r="E151">
+        <v>100</v>
+      </c>
+      <c r="F151">
         <v>128</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>25.31</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>3.55</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>0.48</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -6178,19 +6639,22 @@
         <v>315</v>
       </c>
       <c r="E152">
+        <v>100</v>
+      </c>
+      <c r="F152">
         <v>167</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>33.090000000000003</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>3.33</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>1.25</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -6204,19 +6668,22 @@
         <v>317</v>
       </c>
       <c r="E153">
+        <v>100</v>
+      </c>
+      <c r="F153">
         <v>142</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>29.12</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>2.95</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>0.46</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -6230,19 +6697,22 @@
         <v>319</v>
       </c>
       <c r="E154">
+        <v>100</v>
+      </c>
+      <c r="F154">
         <v>281</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>55.7</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>8.6</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>1.2</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -6256,19 +6726,22 @@
         <v>321</v>
       </c>
       <c r="E155">
+        <v>100</v>
+      </c>
+      <c r="F155">
         <v>149</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>29.2</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>0.6</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -6282,19 +6755,22 @@
         <v>323</v>
       </c>
       <c r="E156">
+        <v>100</v>
+      </c>
+      <c r="F156">
         <v>356</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>67.099999999999994</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>10.3</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>5.2</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -6308,19 +6784,22 @@
         <v>325</v>
       </c>
       <c r="E157">
+        <v>100</v>
+      </c>
+      <c r="F157">
         <v>148</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>28.6</v>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>5.2</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>0.6</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -6334,19 +6813,22 @@
         <v>327</v>
       </c>
       <c r="E158">
+        <v>100</v>
+      </c>
+      <c r="F158">
         <v>198</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>38.4</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>5.3</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <v>1.7</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -6360,19 +6842,22 @@
         <v>329</v>
       </c>
       <c r="E159">
+        <v>100</v>
+      </c>
+      <c r="F159">
         <v>372</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>73.849999999999994</v>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>10.49</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -6386,19 +6871,22 @@
         <v>331</v>
       </c>
       <c r="E160">
+        <v>100</v>
+      </c>
+      <c r="F160">
         <v>118</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>23.14</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>3.6</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>0.38</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -6412,19 +6900,22 @@
         <v>333</v>
       </c>
       <c r="E161">
+        <v>100</v>
+      </c>
+      <c r="F161">
         <v>355</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>71.290000000000006</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>9.16</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>1.08</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -6438,19 +6929,22 @@
         <v>335</v>
       </c>
       <c r="E162">
+        <v>100</v>
+      </c>
+      <c r="F162">
         <v>310</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>63.02</v>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>7.25</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>0.87</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -6464,19 +6958,22 @@
         <v>337</v>
       </c>
       <c r="E163">
+        <v>100</v>
+      </c>
+      <c r="F163">
         <v>143</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>28.98</v>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>3.49</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>0.43</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -6490,19 +6987,22 @@
         <v>339</v>
       </c>
       <c r="E164">
+        <v>100</v>
+      </c>
+      <c r="F164">
         <v>287</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>57.5</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>6.4</v>
       </c>
-      <c r="H164">
+      <c r="I164">
         <v>1.4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -6516,19 +7016,22 @@
         <v>341</v>
       </c>
       <c r="E165">
+        <v>100</v>
+      </c>
+      <c r="F165">
         <v>452</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>69.05</v>
       </c>
-      <c r="G165">
+      <c r="H165">
         <v>8.23</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <v>14.28</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -6542,19 +7045,22 @@
         <v>343</v>
       </c>
       <c r="E166">
+        <v>100</v>
+      </c>
+      <c r="F166">
         <v>178</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>29.65</v>
       </c>
-      <c r="G166">
+      <c r="H166">
         <v>3.61</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <v>4.17</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -6568,19 +7074,22 @@
         <v>345</v>
       </c>
       <c r="E167">
+        <v>100</v>
+      </c>
+      <c r="F167">
         <v>269</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>51.1</v>
       </c>
-      <c r="G167">
+      <c r="H167">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>3.5</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -6594,19 +7103,22 @@
         <v>347</v>
       </c>
       <c r="E168">
+        <v>100</v>
+      </c>
+      <c r="F168">
         <v>415</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>61.44</v>
       </c>
-      <c r="G168">
+      <c r="H168">
         <v>9.5</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>14.54</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -6620,19 +7132,22 @@
         <v>349</v>
       </c>
       <c r="E169">
+        <v>100</v>
+      </c>
+      <c r="F169">
         <v>404</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>47.2</v>
       </c>
-      <c r="G169">
+      <c r="H169">
         <v>7.9</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -6646,19 +7161,22 @@
         <v>351</v>
       </c>
       <c r="E170">
+        <v>100</v>
+      </c>
+      <c r="F170">
         <v>347</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>45.7</v>
       </c>
-      <c r="G170">
+      <c r="H170">
         <v>6.6</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>15.3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -6672,19 +7190,22 @@
         <v>353</v>
       </c>
       <c r="E171">
+        <v>100</v>
+      </c>
+      <c r="F171">
         <v>426</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>40.6</v>
       </c>
-      <c r="G171">
+      <c r="H171">
         <v>7.3</v>
       </c>
-      <c r="H171">
+      <c r="I171">
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -6698,19 +7219,22 @@
         <v>355</v>
       </c>
       <c r="E172">
+        <v>100</v>
+      </c>
+      <c r="F172">
         <v>293</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>52.7</v>
       </c>
-      <c r="G172">
+      <c r="H172">
         <v>9.9</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>4.3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -6724,19 +7248,22 @@
         <v>357</v>
       </c>
       <c r="E173">
+        <v>100</v>
+      </c>
+      <c r="F173">
         <v>316</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>48.6</v>
       </c>
-      <c r="G173">
+      <c r="H173">
         <v>10.1</v>
       </c>
-      <c r="H173" t="s">
+      <c r="I173" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -6750,19 +7277,22 @@
         <v>360</v>
       </c>
       <c r="E174">
+        <v>100</v>
+      </c>
+      <c r="F174">
         <v>424</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>57.5</v>
       </c>
-      <c r="G174">
+      <c r="H174">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <v>17.2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -6776,19 +7306,22 @@
         <v>362</v>
       </c>
       <c r="E175">
+        <v>100</v>
+      </c>
+      <c r="F175">
         <v>296</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>41.4</v>
       </c>
-      <c r="G175">
+      <c r="H175">
         <v>6.9</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>11.4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -6802,19 +7335,22 @@
         <v>364</v>
       </c>
       <c r="E176">
+        <v>100</v>
+      </c>
+      <c r="F176">
         <v>235</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>46</v>
       </c>
-      <c r="G176">
+      <c r="H176">
         <v>7.7</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>1.8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -6828,19 +7364,22 @@
         <v>366</v>
       </c>
       <c r="E177">
+        <v>100</v>
+      </c>
+      <c r="F177">
         <v>316</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>58.99</v>
       </c>
-      <c r="G177">
+      <c r="H177">
         <v>9.06</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <v>4.91</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -6854,19 +7393,22 @@
         <v>368</v>
       </c>
       <c r="E178">
+        <v>100</v>
+      </c>
+      <c r="F178">
         <v>354</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>63.29</v>
       </c>
-      <c r="G178">
+      <c r="H178">
         <v>8.31</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <v>7.53</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -6880,19 +7422,22 @@
         <v>370</v>
       </c>
       <c r="E179">
+        <v>100</v>
+      </c>
+      <c r="F179">
         <v>279</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>57.5</v>
       </c>
-      <c r="G179">
+      <c r="H179">
         <v>9.4</v>
       </c>
-      <c r="H179">
+      <c r="I179">
         <v>1.3</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -6906,19 +7451,22 @@
         <v>372</v>
       </c>
       <c r="E180">
+        <v>100</v>
+      </c>
+      <c r="F180">
         <v>278</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>53</v>
       </c>
-      <c r="G180">
+      <c r="H180">
         <v>10.6</v>
       </c>
-      <c r="H180">
+      <c r="I180">
         <v>2.1</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -6932,19 +7480,22 @@
         <v>374</v>
       </c>
       <c r="E181">
+        <v>100</v>
+      </c>
+      <c r="F181">
         <v>279</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>49.68</v>
       </c>
-      <c r="G181">
+      <c r="H181">
         <v>9.01</v>
       </c>
-      <c r="H181">
+      <c r="I181">
         <v>4.91</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -6958,19 +7509,22 @@
         <v>376</v>
       </c>
       <c r="E182">
+        <v>100</v>
+      </c>
+      <c r="F182">
         <v>266</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>49.37</v>
       </c>
-      <c r="G182">
+      <c r="H182">
         <v>9.35</v>
       </c>
-      <c r="H182">
+      <c r="I182">
         <v>3.5</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -6984,19 +7538,22 @@
         <v>378</v>
       </c>
       <c r="E183">
+        <v>100</v>
+      </c>
+      <c r="F183">
         <v>270</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>50.45</v>
       </c>
-      <c r="G183">
+      <c r="H183">
         <v>9.44</v>
       </c>
-      <c r="H183">
+      <c r="I183">
         <v>3.42</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -7010,19 +7567,22 @@
         <v>380</v>
       </c>
       <c r="E184">
+        <v>100</v>
+      </c>
+      <c r="F184">
         <v>285</v>
       </c>
-      <c r="F184">
+      <c r="G184">
         <v>48.7</v>
       </c>
-      <c r="G184">
+      <c r="H184">
         <v>9.1</v>
       </c>
-      <c r="H184">
+      <c r="I184">
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -7036,19 +7596,22 @@
         <v>382</v>
       </c>
       <c r="E185">
+        <v>100</v>
+      </c>
+      <c r="F185">
         <v>321</v>
       </c>
-      <c r="F185">
+      <c r="G185">
         <v>49.1</v>
       </c>
-      <c r="G185">
+      <c r="H185">
         <v>7.4</v>
       </c>
-      <c r="H185">
+      <c r="I185">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7062,19 +7625,22 @@
         <v>384</v>
       </c>
       <c r="E186">
+        <v>100</v>
+      </c>
+      <c r="F186">
         <v>297</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>54.5</v>
       </c>
-      <c r="G186">
+      <c r="H186">
         <v>6.6</v>
       </c>
-      <c r="H186">
+      <c r="I186">
         <v>5.8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7088,19 +7654,22 @@
         <v>386</v>
       </c>
       <c r="E187">
+        <v>100</v>
+      </c>
+      <c r="F187">
         <v>213</v>
       </c>
-      <c r="F187">
+      <c r="G187">
         <v>44.36</v>
       </c>
-      <c r="G187">
+      <c r="H187">
         <v>5.96</v>
       </c>
-      <c r="H187">
+      <c r="I187">
         <v>1.29</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7114,19 +7683,22 @@
         <v>388</v>
       </c>
       <c r="E188">
+        <v>100</v>
+      </c>
+      <c r="F188">
         <v>231</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>37.299999999999997</v>
       </c>
-      <c r="G188">
+      <c r="H188">
         <v>8.1</v>
       </c>
-      <c r="H188">
+      <c r="I188">
         <v>5.5</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7140,19 +7712,22 @@
         <v>390</v>
       </c>
       <c r="E189">
+        <v>100</v>
+      </c>
+      <c r="F189">
         <v>239</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>52.4</v>
       </c>
-      <c r="G189">
+      <c r="H189">
         <v>5.4</v>
       </c>
-      <c r="H189">
+      <c r="I189">
         <v>0.9</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7166,19 +7741,22 @@
         <v>392</v>
       </c>
       <c r="E190">
+        <v>100</v>
+      </c>
+      <c r="F190">
         <v>299</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>59.46</v>
       </c>
-      <c r="G190">
+      <c r="H190">
         <v>6.91</v>
       </c>
-      <c r="H190">
+      <c r="I190">
         <v>3.72</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -7192,19 +7770,22 @@
         <v>394</v>
       </c>
       <c r="E191">
+        <v>100</v>
+      </c>
+      <c r="F191">
         <v>448</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>43.9</v>
       </c>
-      <c r="G191">
+      <c r="H191">
         <v>7.9</v>
       </c>
-      <c r="H191">
+      <c r="I191">
         <v>26.8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -7218,19 +7799,22 @@
         <v>396</v>
       </c>
       <c r="E192">
+        <v>100</v>
+      </c>
+      <c r="F192">
         <v>406</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>45.8</v>
       </c>
-      <c r="G192">
+      <c r="H192">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H192">
+      <c r="I192">
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -7244,19 +7828,22 @@
         <v>398</v>
       </c>
       <c r="E193">
+        <v>100</v>
+      </c>
+      <c r="F193">
         <v>307</v>
       </c>
-      <c r="F193">
+      <c r="G193">
         <v>29.7</v>
       </c>
-      <c r="G193">
+      <c r="H193">
         <v>6</v>
       </c>
-      <c r="H193">
+      <c r="I193">
         <v>18.2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -7270,19 +7857,22 @@
         <v>400</v>
       </c>
       <c r="E194">
+        <v>100</v>
+      </c>
+      <c r="F194">
         <v>301</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>31.2</v>
       </c>
-      <c r="G194">
+      <c r="H194">
         <v>7.1</v>
       </c>
-      <c r="H194">
+      <c r="I194">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -7296,19 +7886,22 @@
         <v>402</v>
       </c>
       <c r="E195">
+        <v>100</v>
+      </c>
+      <c r="F195">
         <v>275</v>
       </c>
-      <c r="F195">
+      <c r="G195">
         <v>45.5</v>
       </c>
-      <c r="G195">
+      <c r="H195">
         <v>6</v>
       </c>
-      <c r="H195">
+      <c r="I195">
         <v>7.7</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -7322,19 +7915,22 @@
         <v>404</v>
       </c>
       <c r="E196">
+        <v>100</v>
+      </c>
+      <c r="F196">
         <v>383</v>
       </c>
-      <c r="F196">
+      <c r="G196">
         <v>46.2</v>
       </c>
-      <c r="G196">
+      <c r="H196">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H196">
+      <c r="I196">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -7348,19 +7944,22 @@
         <v>406</v>
       </c>
       <c r="E197">
+        <v>100</v>
+      </c>
+      <c r="F197">
         <v>253</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>48.51</v>
       </c>
-      <c r="G197">
+      <c r="H197">
         <v>7.57</v>
       </c>
-      <c r="H197">
+      <c r="I197">
         <v>3.17</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -7374,19 +7973,22 @@
         <v>408</v>
       </c>
       <c r="E198">
+        <v>100</v>
+      </c>
+      <c r="F198">
         <v>457</v>
       </c>
-      <c r="F198">
+      <c r="G198">
         <v>46.5</v>
       </c>
-      <c r="G198">
+      <c r="H198">
         <v>8.6</v>
       </c>
-      <c r="H198">
+      <c r="I198">
         <v>26.3</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -7400,19 +8002,22 @@
         <v>410</v>
       </c>
       <c r="E199">
+        <v>100</v>
+      </c>
+      <c r="F199">
         <v>374</v>
       </c>
-      <c r="F199">
+      <c r="G199">
         <v>37.200000000000003</v>
       </c>
-      <c r="G199">
-        <v>8</v>
-      </c>
       <c r="H199">
+        <v>8</v>
+      </c>
+      <c r="I199">
         <v>21.9</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -7426,19 +8031,22 @@
         <v>412</v>
       </c>
       <c r="E200">
+        <v>100</v>
+      </c>
+      <c r="F200">
         <v>371</v>
       </c>
-      <c r="F200">
+      <c r="G200">
         <v>47.8</v>
       </c>
-      <c r="G200">
+      <c r="H200">
         <v>5.4</v>
       </c>
-      <c r="H200">
+      <c r="I200">
         <v>18.5</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -7452,19 +8060,22 @@
         <v>414</v>
       </c>
       <c r="E201">
+        <v>100</v>
+      </c>
+      <c r="F201">
         <v>254</v>
       </c>
-      <c r="F201">
+      <c r="G201">
         <v>44.12</v>
       </c>
-      <c r="G201">
+      <c r="H201">
         <v>4.8099999999999996</v>
       </c>
-      <c r="H201">
+      <c r="I201">
         <v>6.44</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -7478,19 +8089,22 @@
         <v>416</v>
       </c>
       <c r="E202">
+        <v>100</v>
+      </c>
+      <c r="F202">
         <v>323</v>
       </c>
-      <c r="F202">
+      <c r="G202">
         <v>33</v>
       </c>
-      <c r="G202">
+      <c r="H202">
         <v>10.59</v>
       </c>
-      <c r="H202">
+      <c r="I202">
         <v>16.52</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -7504,19 +8118,22 @@
         <v>418</v>
       </c>
       <c r="E203">
+        <v>100</v>
+      </c>
+      <c r="F203">
         <v>262</v>
       </c>
-      <c r="F203">
+      <c r="G203">
         <v>47.6</v>
       </c>
-      <c r="G203">
+      <c r="H203">
         <v>10.3</v>
       </c>
-      <c r="H203">
+      <c r="I203">
         <v>3.4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -7530,19 +8147,22 @@
         <v>420</v>
       </c>
       <c r="E204">
+        <v>100</v>
+      </c>
+      <c r="F204">
         <v>324</v>
       </c>
-      <c r="F204">
+      <c r="G204">
         <v>61.6</v>
       </c>
-      <c r="G204">
+      <c r="H204">
         <v>2.9</v>
       </c>
-      <c r="H204">
+      <c r="I204">
         <v>9.1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -7556,19 +8176,22 @@
         <v>422</v>
       </c>
       <c r="E205">
+        <v>100</v>
+      </c>
+      <c r="F205">
         <v>369</v>
       </c>
-      <c r="F205">
+      <c r="G205">
         <v>39.24</v>
       </c>
-      <c r="G205">
+      <c r="H205">
         <v>7.51</v>
       </c>
-      <c r="H205">
+      <c r="I205">
         <v>20.22</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -7582,19 +8205,22 @@
         <v>424</v>
       </c>
       <c r="E206">
+        <v>100</v>
+      </c>
+      <c r="F206">
         <v>296</v>
       </c>
-      <c r="F206">
+      <c r="G206">
         <v>43.5</v>
       </c>
-      <c r="G206">
+      <c r="H206">
         <v>6.2</v>
       </c>
-      <c r="H206">
+      <c r="I206">
         <v>10.8</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -7608,19 +8234,22 @@
         <v>426</v>
       </c>
       <c r="E207">
+        <v>100</v>
+      </c>
+      <c r="F207">
         <v>280</v>
       </c>
-      <c r="F207">
+      <c r="G207">
         <v>24.39</v>
       </c>
-      <c r="G207">
+      <c r="H207">
         <v>3.03</v>
       </c>
-      <c r="H207">
+      <c r="I207">
         <v>18.88</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -7634,19 +8263,22 @@
         <v>428</v>
       </c>
       <c r="E208">
+        <v>100</v>
+      </c>
+      <c r="F208">
         <v>327</v>
       </c>
-      <c r="F208">
+      <c r="G208">
         <v>43.6</v>
       </c>
-      <c r="G208">
+      <c r="H208">
         <v>7.1</v>
       </c>
-      <c r="H208">
+      <c r="I208">
         <v>13.8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -7660,19 +8292,22 @@
         <v>430</v>
       </c>
       <c r="E209">
+        <v>100</v>
+      </c>
+      <c r="F209">
         <v>352</v>
       </c>
-      <c r="F209">
+      <c r="G209">
         <v>47.2</v>
       </c>
-      <c r="G209">
+      <c r="H209">
         <v>6.6</v>
       </c>
-      <c r="H209">
+      <c r="I209">
         <v>15.2</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -7686,19 +8321,22 @@
         <v>432</v>
       </c>
       <c r="E210">
+        <v>100</v>
+      </c>
+      <c r="F210">
         <v>258</v>
       </c>
-      <c r="F210">
+      <c r="G210">
         <v>57.8</v>
       </c>
-      <c r="G210">
+      <c r="H210">
         <v>5.9</v>
       </c>
-      <c r="H210">
+      <c r="I210">
         <v>0.8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -7712,19 +8350,22 @@
         <v>434</v>
       </c>
       <c r="E211">
+        <v>100</v>
+      </c>
+      <c r="F211">
         <v>417</v>
       </c>
-      <c r="F211">
+      <c r="G211">
         <v>49.31</v>
       </c>
-      <c r="G211">
+      <c r="H211">
         <v>5.23</v>
       </c>
-      <c r="H211">
+      <c r="I211">
         <v>22.09</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -7738,19 +8379,22 @@
         <v>436</v>
       </c>
       <c r="E212">
+        <v>100</v>
+      </c>
+      <c r="F212">
         <v>331</v>
       </c>
-      <c r="F212">
+      <c r="G212">
         <v>28.82</v>
       </c>
-      <c r="G212">
+      <c r="H212">
         <v>5.87</v>
       </c>
-      <c r="H212">
+      <c r="I212">
         <v>21.32</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -7764,19 +8408,22 @@
         <v>438</v>
       </c>
       <c r="E213">
+        <v>100</v>
+      </c>
+      <c r="F213">
         <v>408</v>
       </c>
-      <c r="F213">
+      <c r="G213">
         <v>49.65</v>
       </c>
-      <c r="G213">
+      <c r="H213">
         <v>5.66</v>
       </c>
-      <c r="H213">
+      <c r="I213">
         <v>20.71</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -7790,19 +8437,22 @@
         <v>440</v>
       </c>
       <c r="E214">
+        <v>100</v>
+      </c>
+      <c r="F214">
         <v>227</v>
       </c>
-      <c r="F214">
+      <c r="G214">
         <v>28.3</v>
       </c>
-      <c r="G214">
+      <c r="H214">
         <v>6.4</v>
       </c>
-      <c r="H214">
+      <c r="I214">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -7816,19 +8466,22 @@
         <v>442</v>
       </c>
       <c r="E215">
+        <v>100</v>
+      </c>
+      <c r="F215">
         <v>388</v>
       </c>
-      <c r="F215">
+      <c r="G215">
         <v>77.099999999999994</v>
       </c>
-      <c r="G215">
+      <c r="H215">
         <v>12.2</v>
       </c>
-      <c r="H215">
+      <c r="I215">
         <v>0.4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -7842,19 +8495,22 @@
         <v>444</v>
       </c>
       <c r="E216">
+        <v>100</v>
+      </c>
+      <c r="F216">
         <v>129</v>
       </c>
-      <c r="F216">
+      <c r="G216">
         <v>25.8</v>
       </c>
-      <c r="G216">
+      <c r="H216">
         <v>3.8</v>
       </c>
-      <c r="H216">
+      <c r="I216">
         <v>0.2</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -7868,19 +8524,22 @@
         <v>446</v>
       </c>
       <c r="E217">
+        <v>100</v>
+      </c>
+      <c r="F217">
         <v>365</v>
       </c>
-      <c r="F217">
+      <c r="G217">
         <v>76.64</v>
       </c>
-      <c r="G217">
+      <c r="H217">
         <v>11.78</v>
       </c>
-      <c r="H217">
+      <c r="I217">
         <v>1.28</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -7894,19 +8553,22 @@
         <v>448</v>
       </c>
       <c r="E218">
+        <v>100</v>
+      </c>
+      <c r="F218">
         <v>132</v>
       </c>
-      <c r="F218">
+      <c r="G218">
         <v>26.9</v>
       </c>
-      <c r="G218">
+      <c r="H218">
         <v>3.8</v>
       </c>
-      <c r="H218">
+      <c r="I218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -7920,19 +8582,22 @@
         <v>450</v>
       </c>
       <c r="E219">
+        <v>100</v>
+      </c>
+      <c r="F219">
         <v>325</v>
       </c>
-      <c r="F219">
+      <c r="G219">
         <v>78</v>
       </c>
-      <c r="G219">
+      <c r="H219">
         <v>10</v>
       </c>
-      <c r="H219">
+      <c r="I219">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -7946,19 +8611,22 @@
         <v>452</v>
       </c>
       <c r="E220">
+        <v>100</v>
+      </c>
+      <c r="F220">
         <v>326</v>
       </c>
-      <c r="F220">
+      <c r="G220">
         <v>78.5</v>
       </c>
-      <c r="G220">
+      <c r="H220">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H220">
+      <c r="I220">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -7972,19 +8640,22 @@
         <v>454</v>
       </c>
       <c r="E221">
+        <v>100</v>
+      </c>
+      <c r="F221">
         <v>316</v>
       </c>
-      <c r="F221">
+      <c r="G221">
         <v>74.39</v>
       </c>
-      <c r="G221">
+      <c r="H221">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H221">
+      <c r="I221">
         <v>1.81</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -7998,19 +8669,22 @@
         <v>456</v>
       </c>
       <c r="E222">
+        <v>100</v>
+      </c>
+      <c r="F222">
         <v>316</v>
       </c>
-      <c r="F222">
+      <c r="G222">
         <v>75.38</v>
       </c>
-      <c r="G222">
+      <c r="H222">
         <v>8.74</v>
       </c>
-      <c r="H222">
+      <c r="I222">
         <v>1.66</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -8024,19 +8698,22 @@
         <v>458</v>
       </c>
       <c r="E223">
+        <v>100</v>
+      </c>
+      <c r="F223">
         <v>327</v>
       </c>
-      <c r="F223">
+      <c r="G223">
         <v>77.709999999999994</v>
       </c>
-      <c r="G223">
+      <c r="H223">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H223">
+      <c r="I223">
         <v>1.67</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -8050,19 +8727,22 @@
         <v>460</v>
       </c>
       <c r="E224">
+        <v>100</v>
+      </c>
+      <c r="F224">
         <v>335</v>
       </c>
-      <c r="F224">
+      <c r="G224">
         <v>74.099999999999994</v>
       </c>
-      <c r="G224">
+      <c r="H224">
         <v>12.7</v>
       </c>
-      <c r="H224">
+      <c r="I224">
         <v>2.6</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -8076,19 +8756,22 @@
         <v>462</v>
       </c>
       <c r="E225">
+        <v>100</v>
+      </c>
+      <c r="F225">
         <v>331</v>
       </c>
-      <c r="F225">
+      <c r="G225">
         <v>76.48</v>
       </c>
-      <c r="G225">
+      <c r="H225">
         <v>11.16</v>
       </c>
-      <c r="H225">
+      <c r="I225">
         <v>1.83</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -8102,19 +8785,22 @@
         <v>464</v>
       </c>
       <c r="E226">
+        <v>100</v>
+      </c>
+      <c r="F226">
         <v>338</v>
       </c>
-      <c r="F226">
+      <c r="G226">
         <v>76.09</v>
       </c>
-      <c r="G226">
+      <c r="H226">
         <v>10.95</v>
       </c>
-      <c r="H226">
+      <c r="I226">
         <v>2.99</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -8128,19 +8814,22 @@
         <v>466</v>
       </c>
       <c r="E227">
+        <v>100</v>
+      </c>
+      <c r="F227">
         <v>374</v>
       </c>
-      <c r="F227">
+      <c r="G227">
         <v>76.17</v>
       </c>
-      <c r="G227">
+      <c r="H227">
         <v>14.52</v>
       </c>
-      <c r="H227">
+      <c r="I227">
         <v>5.48</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -8154,19 +8843,22 @@
         <v>468</v>
       </c>
       <c r="E228">
+        <v>100</v>
+      </c>
+      <c r="F228">
         <v>335</v>
       </c>
-      <c r="F228">
+      <c r="G228">
         <v>71.680000000000007</v>
       </c>
-      <c r="G228">
+      <c r="H228">
         <v>14.65</v>
       </c>
-      <c r="H228">
+      <c r="I228">
         <v>2.71</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -8180,19 +8872,22 @@
         <v>470</v>
       </c>
       <c r="E229">
+        <v>100</v>
+      </c>
+      <c r="F229">
         <v>322</v>
       </c>
-      <c r="F229">
+      <c r="G229">
         <v>72.290000000000006</v>
       </c>
-      <c r="G229">
+      <c r="H229">
         <v>11.87</v>
       </c>
-      <c r="H229">
+      <c r="I229">
         <v>2.15</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -8206,19 +8901,22 @@
         <v>472</v>
       </c>
       <c r="E230">
+        <v>100</v>
+      </c>
+      <c r="F230">
         <v>320</v>
       </c>
-      <c r="F230">
+      <c r="G230">
         <v>75.08</v>
       </c>
-      <c r="G230">
+      <c r="H230">
         <v>9.7899999999999991</v>
       </c>
-      <c r="H230">
+      <c r="I230">
         <v>1.77</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -8232,19 +8930,22 @@
         <v>474</v>
       </c>
       <c r="E231">
+        <v>100</v>
+      </c>
+      <c r="F231">
         <v>333</v>
       </c>
-      <c r="F231">
+      <c r="G231">
         <v>82</v>
       </c>
-      <c r="G231">
+      <c r="H231">
         <v>8.5</v>
       </c>
-      <c r="H231">
+      <c r="I231">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -8258,19 +8959,22 @@
         <v>476</v>
       </c>
       <c r="E232">
+        <v>100</v>
+      </c>
+      <c r="F232">
         <v>260</v>
       </c>
-      <c r="F232">
+      <c r="G232">
         <v>76.5</v>
       </c>
-      <c r="G232">
+      <c r="H232">
         <v>10.5</v>
       </c>
-      <c r="H232">
+      <c r="I232">
         <v>3.1</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -8284,19 +8988,22 @@
         <v>478</v>
       </c>
       <c r="E233">
+        <v>100</v>
+      </c>
+      <c r="F233">
         <v>243</v>
       </c>
-      <c r="F233">
+      <c r="G233">
         <v>71.5</v>
       </c>
-      <c r="G233">
+      <c r="H233">
         <v>9.85</v>
       </c>
-      <c r="H233">
+      <c r="I233">
         <v>2.96</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -8310,19 +9017,22 @@
         <v>480</v>
       </c>
       <c r="E234">
+        <v>100</v>
+      </c>
+      <c r="F234">
         <v>247</v>
       </c>
-      <c r="F234">
+      <c r="G234">
         <v>79.2</v>
       </c>
-      <c r="G234">
+      <c r="H234">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H234">
+      <c r="I234">
         <v>1.2</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -8336,19 +9046,22 @@
         <v>482</v>
       </c>
       <c r="E235">
+        <v>100</v>
+      </c>
+      <c r="F235">
         <v>218</v>
       </c>
-      <c r="F235">
+      <c r="G235">
         <v>43.1</v>
       </c>
-      <c r="G235">
+      <c r="H235">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H235">
+      <c r="I235">
         <v>1.4</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -8362,19 +9075,22 @@
         <v>484</v>
       </c>
       <c r="E236">
+        <v>100</v>
+      </c>
+      <c r="F236">
         <v>426</v>
       </c>
-      <c r="F236">
+      <c r="G236">
         <v>78.180000000000007</v>
       </c>
-      <c r="G236">
+      <c r="H236">
         <v>7.3</v>
       </c>
-      <c r="H236">
+      <c r="I236">
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -8388,19 +9104,22 @@
         <v>486</v>
       </c>
       <c r="E237">
+        <v>100</v>
+      </c>
+      <c r="F237">
         <v>378</v>
       </c>
-      <c r="F237">
+      <c r="G237">
         <v>88.05</v>
       </c>
-      <c r="G237">
+      <c r="H237">
         <v>5.1100000000000003</v>
       </c>
-      <c r="H237">
+      <c r="I237">
         <v>0.59</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -8414,19 +9133,22 @@
         <v>488</v>
       </c>
       <c r="E238">
+        <v>100</v>
+      </c>
+      <c r="F238">
         <v>394</v>
       </c>
-      <c r="F238">
+      <c r="G238">
         <v>85.33</v>
       </c>
-      <c r="G238">
+      <c r="H238">
         <v>6.8</v>
       </c>
-      <c r="H238">
+      <c r="I238">
         <v>2.79</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -8440,19 +9162,22 @@
         <v>490</v>
       </c>
       <c r="E239">
+        <v>100</v>
+      </c>
+      <c r="F239">
         <v>434</v>
       </c>
-      <c r="F239">
+      <c r="G239">
         <v>80.930000000000007</v>
       </c>
-      <c r="G239">
+      <c r="H239">
         <v>5.56</v>
       </c>
-      <c r="H239">
+      <c r="I239">
         <v>9.75</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -8466,19 +9191,22 @@
         <v>492</v>
       </c>
       <c r="E240">
+        <v>100</v>
+      </c>
+      <c r="F240">
         <v>395</v>
       </c>
-      <c r="F240">
+      <c r="G240">
         <v>84.66</v>
       </c>
-      <c r="G240">
+      <c r="H240">
         <v>5.81</v>
       </c>
-      <c r="H240">
+      <c r="I240">
         <v>3.65</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -8492,19 +9220,22 @@
         <v>494</v>
       </c>
       <c r="E241">
+        <v>100</v>
+      </c>
+      <c r="F241">
         <v>390</v>
       </c>
-      <c r="F241">
+      <c r="G241">
         <v>86.99</v>
       </c>
-      <c r="G241">
+      <c r="H241">
         <v>6.65</v>
       </c>
-      <c r="H241">
+      <c r="I241">
         <v>1.68</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -8518,19 +9249,22 @@
         <v>496</v>
       </c>
       <c r="E242">
+        <v>100</v>
+      </c>
+      <c r="F242">
         <v>407</v>
       </c>
-      <c r="F242">
+      <c r="G242">
         <v>85.78</v>
       </c>
-      <c r="G242">
+      <c r="H242">
         <v>6.08</v>
       </c>
-      <c r="H242">
+      <c r="I242">
         <v>4.34</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -8544,19 +9278,22 @@
         <v>498</v>
       </c>
       <c r="E243">
+        <v>100</v>
+      </c>
+      <c r="F243">
         <v>353</v>
       </c>
-      <c r="F243">
+      <c r="G243">
         <v>67.27</v>
       </c>
-      <c r="G243">
+      <c r="H243">
         <v>17.09</v>
       </c>
-      <c r="H243">
+      <c r="I243">
         <v>5.94</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -8570,19 +9307,22 @@
         <v>500</v>
       </c>
       <c r="E244">
+        <v>100</v>
+      </c>
+      <c r="F244">
         <v>350</v>
       </c>
-      <c r="F244">
+      <c r="G244">
         <v>67.59</v>
       </c>
-      <c r="G244">
+      <c r="H244">
         <v>16.47</v>
       </c>
-      <c r="H244">
+      <c r="I244">
         <v>5.78</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -8596,19 +9336,22 @@
         <v>502</v>
       </c>
       <c r="E245">
+        <v>100</v>
+      </c>
+      <c r="F245">
         <v>83</v>
       </c>
-      <c r="F245">
+      <c r="G245">
         <v>23.4</v>
       </c>
-      <c r="G245">
+      <c r="H245">
         <v>3.8</v>
       </c>
-      <c r="H245">
+      <c r="I245">
         <v>0.5</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -8622,19 +9365,22 @@
         <v>504</v>
       </c>
       <c r="E246">
+        <v>100</v>
+      </c>
+      <c r="F246">
         <v>102</v>
       </c>
-      <c r="F246">
+      <c r="G246">
         <v>29.1</v>
       </c>
-      <c r="G246">
+      <c r="H246">
         <v>4.2</v>
       </c>
-      <c r="H246">
+      <c r="I246">
         <v>0.7</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -8648,19 +9394,22 @@
         <v>506</v>
       </c>
       <c r="E247">
+        <v>100</v>
+      </c>
+      <c r="F247">
         <v>138</v>
       </c>
-      <c r="F247">
+      <c r="G247">
         <v>36.26</v>
       </c>
-      <c r="G247">
+      <c r="H247">
         <v>5.34</v>
       </c>
-      <c r="H247">
+      <c r="I247">
         <v>2.06</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -8674,19 +9423,22 @@
         <v>508</v>
       </c>
       <c r="E248">
+        <v>100</v>
+      </c>
+      <c r="F248">
         <v>267</v>
       </c>
-      <c r="F248">
+      <c r="G248">
         <v>71.900000000000006</v>
       </c>
-      <c r="G248">
+      <c r="H248">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H248">
+      <c r="I248">
         <v>3.8</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -8700,19 +9452,22 @@
         <v>510</v>
       </c>
       <c r="E249">
+        <v>100</v>
+      </c>
+      <c r="F249">
         <v>134</v>
       </c>
-      <c r="F249">
+      <c r="G249">
         <v>34.89</v>
       </c>
-      <c r="G249">
+      <c r="H249">
         <v>5.1100000000000003</v>
       </c>
-      <c r="H249">
+      <c r="I249">
         <v>2.19</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -8726,19 +9481,22 @@
         <v>512</v>
       </c>
       <c r="E250">
+        <v>100</v>
+      </c>
+      <c r="F250">
         <v>282</v>
       </c>
-      <c r="F250">
+      <c r="G250">
         <v>78.3</v>
       </c>
-      <c r="G250">
+      <c r="H250">
         <v>8.9</v>
       </c>
-      <c r="H250">
+      <c r="I250">
         <v>3.9</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -8752,19 +9510,22 @@
         <v>514</v>
       </c>
       <c r="E251">
+        <v>100</v>
+      </c>
+      <c r="F251">
         <v>110</v>
       </c>
-      <c r="F251">
+      <c r="G251">
         <v>29.4</v>
       </c>
-      <c r="G251">
+      <c r="H251">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H251">
+      <c r="I251">
         <v>1.2</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -8778,19 +9539,22 @@
         <v>516</v>
       </c>
       <c r="E252">
+        <v>100</v>
+      </c>
+      <c r="F252">
         <v>289</v>
       </c>
-      <c r="F252">
+      <c r="G252">
         <v>74.7</v>
       </c>
-      <c r="G252">
+      <c r="H252">
         <v>11.5</v>
       </c>
-      <c r="H252">
+      <c r="I252">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -8804,19 +9568,22 @@
         <v>518</v>
       </c>
       <c r="E253">
+        <v>100</v>
+      </c>
+      <c r="F253">
         <v>108</v>
       </c>
-      <c r="F253">
+      <c r="G253">
         <v>25.4</v>
       </c>
-      <c r="G253">
+      <c r="H253">
         <v>6.6</v>
       </c>
-      <c r="H253">
+      <c r="I253">
         <v>1.4</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -8830,19 +9597,22 @@
         <v>520</v>
       </c>
       <c r="E254">
+        <v>100</v>
+      </c>
+      <c r="F254">
         <v>265</v>
       </c>
-      <c r="F254">
+      <c r="G254">
         <v>83.3</v>
       </c>
-      <c r="G254">
+      <c r="H254">
         <v>7.32</v>
       </c>
-      <c r="H254">
+      <c r="I254">
         <v>0.97</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -8856,19 +9626,22 @@
         <v>522</v>
       </c>
       <c r="E255">
+        <v>100</v>
+      </c>
+      <c r="F255">
         <v>84</v>
       </c>
-      <c r="F255">
+      <c r="G255">
         <v>18.600000000000001</v>
       </c>
-      <c r="G255">
+      <c r="H255">
         <v>1.7</v>
       </c>
-      <c r="H255">
+      <c r="I255">
         <v>0.5</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -8882,19 +9655,22 @@
         <v>524</v>
       </c>
       <c r="E256">
+        <v>100</v>
+      </c>
+      <c r="F256">
         <v>82</v>
       </c>
-      <c r="F256">
+      <c r="G256">
         <v>17.8</v>
       </c>
-      <c r="G256">
+      <c r="H256">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H256">
+      <c r="I256">
         <v>0.5</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -8908,19 +9684,22 @@
         <v>526</v>
       </c>
       <c r="E257">
+        <v>100</v>
+      </c>
+      <c r="F257">
         <v>91</v>
       </c>
-      <c r="F257">
+      <c r="G257">
         <v>18.3</v>
       </c>
-      <c r="G257">
+      <c r="H257">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H257">
+      <c r="I257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -8934,19 +9713,22 @@
         <v>528</v>
       </c>
       <c r="E258">
+        <v>100</v>
+      </c>
+      <c r="F258">
         <v>296</v>
       </c>
-      <c r="F258">
+      <c r="G258">
         <v>87.9</v>
       </c>
-      <c r="G258">
+      <c r="H258">
         <v>7.16</v>
       </c>
-      <c r="H258">
+      <c r="I258">
         <v>3.25</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -8960,19 +9742,22 @@
         <v>530</v>
       </c>
       <c r="E259">
+        <v>100</v>
+      </c>
+      <c r="F259">
         <v>538</v>
       </c>
-      <c r="F259">
+      <c r="G259">
         <v>56.9</v>
       </c>
-      <c r="G259">
+      <c r="H259">
         <v>6.17</v>
       </c>
-      <c r="H259">
+      <c r="I259">
         <v>33.36</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -8986,19 +9771,22 @@
         <v>532</v>
       </c>
       <c r="E260">
+        <v>100</v>
+      </c>
+      <c r="F260">
         <v>536</v>
       </c>
-      <c r="F260">
+      <c r="G260">
         <v>57.6</v>
       </c>
-      <c r="G260">
+      <c r="H260">
         <v>7.6</v>
       </c>
-      <c r="H260">
+      <c r="I260">
         <v>30.6</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -9012,19 +9800,22 @@
         <v>534</v>
       </c>
       <c r="E261">
+        <v>100</v>
+      </c>
+      <c r="F261">
         <v>428</v>
       </c>
-      <c r="F261">
+      <c r="G261">
         <v>61.18</v>
       </c>
-      <c r="G261">
+      <c r="H261">
         <v>8.1199999999999992</v>
       </c>
-      <c r="H261">
+      <c r="I261">
         <v>27.28</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -9038,19 +9829,22 @@
         <v>536</v>
       </c>
       <c r="E262">
+        <v>100</v>
+      </c>
+      <c r="F262">
         <v>289</v>
       </c>
-      <c r="F262">
+      <c r="G262">
         <v>76.3</v>
       </c>
-      <c r="G262">
+      <c r="H262">
         <v>11.5</v>
       </c>
-      <c r="H262">
+      <c r="I262">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -9064,19 +9858,22 @@
         <v>538</v>
       </c>
       <c r="E263">
+        <v>100</v>
+      </c>
+      <c r="F263">
         <v>55</v>
       </c>
-      <c r="F263">
+      <c r="G263">
         <v>12.6</v>
       </c>
-      <c r="G263">
+      <c r="H263">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H263">
+      <c r="I263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -9090,19 +9887,22 @@
         <v>540</v>
       </c>
       <c r="E264">
+        <v>100</v>
+      </c>
+      <c r="F264">
         <v>104</v>
       </c>
-      <c r="F264">
+      <c r="G264">
         <v>22.4</v>
       </c>
-      <c r="G264">
+      <c r="H264">
         <v>3.2</v>
       </c>
-      <c r="H264">
+      <c r="I264">
         <v>0.2</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -9116,19 +9916,22 @@
         <v>542</v>
       </c>
       <c r="E265">
+        <v>100</v>
+      </c>
+      <c r="F265">
         <v>363</v>
       </c>
-      <c r="F265">
+      <c r="G265">
         <v>70.5</v>
       </c>
-      <c r="G265">
+      <c r="H265">
         <v>15.4</v>
       </c>
-      <c r="H265">
+      <c r="I265">
         <v>3.2</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -9142,19 +9945,22 @@
         <v>544</v>
       </c>
       <c r="E266">
+        <v>100</v>
+      </c>
+      <c r="F266">
         <v>353</v>
       </c>
-      <c r="F266">
+      <c r="G266">
         <v>74.599999999999994</v>
       </c>
-      <c r="G266">
+      <c r="H266">
         <v>13.2</v>
       </c>
-      <c r="H266">
+      <c r="I266">
         <v>1.2</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -9168,19 +9974,22 @@
         <v>546</v>
       </c>
       <c r="E267">
+        <v>100</v>
+      </c>
+      <c r="F267">
         <v>42</v>
       </c>
-      <c r="F267">
+      <c r="G267">
         <v>9.5</v>
       </c>
-      <c r="G267">
+      <c r="H267">
         <v>0.5</v>
       </c>
-      <c r="H267">
+      <c r="I267">
         <v>0.4</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -9194,19 +10003,22 @@
         <v>548</v>
       </c>
       <c r="E268">
+        <v>100</v>
+      </c>
+      <c r="F268">
         <v>342</v>
       </c>
-      <c r="F268">
+      <c r="G268">
         <v>73.400000000000006</v>
       </c>
-      <c r="G268">
+      <c r="H268">
         <v>9.7899999999999991</v>
       </c>
-      <c r="H268">
+      <c r="I268">
         <v>2.09</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -9220,19 +10032,22 @@
         <v>550</v>
       </c>
       <c r="E269">
+        <v>100</v>
+      </c>
+      <c r="F269">
         <v>357</v>
       </c>
-      <c r="F269">
+      <c r="G269">
         <v>72.81</v>
       </c>
-      <c r="G269">
+      <c r="H269">
         <v>10.7</v>
       </c>
-      <c r="H269">
+      <c r="I269">
         <v>3.7</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -9246,19 +10061,22 @@
         <v>552</v>
       </c>
       <c r="E270">
+        <v>100</v>
+      </c>
+      <c r="F270">
         <v>110</v>
       </c>
-      <c r="F270">
+      <c r="G270">
         <v>22.71</v>
       </c>
-      <c r="G270">
+      <c r="H270">
         <v>3.14</v>
       </c>
-      <c r="H270">
+      <c r="I270">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -9272,19 +10090,22 @@
         <v>554</v>
       </c>
       <c r="E271">
+        <v>100</v>
+      </c>
+      <c r="F271">
         <v>345</v>
       </c>
-      <c r="F271">
+      <c r="G271">
         <v>71.14</v>
       </c>
-      <c r="G271">
+      <c r="H271">
         <v>9.58</v>
       </c>
-      <c r="H271">
+      <c r="I271">
         <v>3.59</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -9298,19 +10119,22 @@
         <v>556</v>
       </c>
       <c r="E272">
+        <v>100</v>
+      </c>
+      <c r="F272">
         <v>357</v>
       </c>
-      <c r="F272">
+      <c r="G272">
         <v>82.08</v>
       </c>
-      <c r="G272">
+      <c r="H272">
         <v>6.44</v>
       </c>
-      <c r="H272">
+      <c r="I272">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -9324,19 +10148,22 @@
         <v>558</v>
       </c>
       <c r="E273">
+        <v>100</v>
+      </c>
+      <c r="F273">
         <v>359</v>
       </c>
-      <c r="F273">
+      <c r="G273">
         <v>81.900000000000006</v>
       </c>
-      <c r="G273">
+      <c r="H273">
         <v>7.4</v>
       </c>
-      <c r="H273">
+      <c r="I273">
         <v>0.4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -9350,19 +10177,22 @@
         <v>560</v>
       </c>
       <c r="E274">
+        <v>100</v>
+      </c>
+      <c r="F274">
         <v>316</v>
       </c>
-      <c r="F274">
+      <c r="G274">
         <v>75.7</v>
       </c>
-      <c r="G274">
+      <c r="H274">
         <v>7.3</v>
       </c>
-      <c r="H274">
+      <c r="I274">
         <v>2.8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -9376,19 +10206,22 @@
         <v>562</v>
       </c>
       <c r="E275">
+        <v>100</v>
+      </c>
+      <c r="F275">
         <v>386</v>
       </c>
-      <c r="F275">
+      <c r="G275">
         <v>83.6</v>
       </c>
-      <c r="G275">
+      <c r="H275">
         <v>9</v>
       </c>
-      <c r="H275">
+      <c r="I275">
         <v>1.7</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -9402,19 +10235,22 @@
         <v>564</v>
       </c>
       <c r="E276">
+        <v>100</v>
+      </c>
+      <c r="F276">
         <v>359</v>
       </c>
-      <c r="F276">
+      <c r="G276">
         <v>75.2</v>
       </c>
-      <c r="G276">
+      <c r="H276">
         <v>9.5</v>
       </c>
-      <c r="H276">
+      <c r="I276">
         <v>2.6</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -9428,19 +10264,22 @@
         <v>566</v>
       </c>
       <c r="E277">
+        <v>100</v>
+      </c>
+      <c r="F277">
         <v>346</v>
       </c>
-      <c r="F277">
+      <c r="G277">
         <v>78.16</v>
       </c>
-      <c r="G277">
+      <c r="H277">
         <v>6.64</v>
       </c>
-      <c r="H277">
+      <c r="I277">
         <v>1.04</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -9454,19 +10293,22 @@
         <v>568</v>
       </c>
       <c r="E278">
+        <v>100</v>
+      </c>
+      <c r="F278">
         <v>312</v>
       </c>
-      <c r="F278">
+      <c r="G278">
         <v>76.22</v>
       </c>
-      <c r="G278">
+      <c r="H278">
         <v>7.14</v>
       </c>
-      <c r="H278">
+      <c r="I278">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -9480,19 +10322,22 @@
         <v>570</v>
       </c>
       <c r="E279">
+        <v>100</v>
+      </c>
+      <c r="F279">
         <v>475</v>
       </c>
-      <c r="F279">
+      <c r="G279">
         <v>48.3</v>
       </c>
-      <c r="G279">
+      <c r="H279">
         <v>13.8</v>
       </c>
-      <c r="H279">
+      <c r="I279">
         <v>25.2</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -9506,19 +10351,22 @@
         <v>572</v>
       </c>
       <c r="E280">
+        <v>100</v>
+      </c>
+      <c r="F280">
         <v>343</v>
       </c>
-      <c r="F280">
+      <c r="G280">
         <v>76.099999999999994</v>
       </c>
-      <c r="G280">
+      <c r="H280">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H280">
+      <c r="I280">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -9532,19 +10380,22 @@
         <v>574</v>
       </c>
       <c r="E281">
+        <v>100</v>
+      </c>
+      <c r="F281">
         <v>417</v>
       </c>
-      <c r="F281">
+      <c r="G281">
         <v>75.599999999999994</v>
       </c>
-      <c r="G281">
+      <c r="H281">
         <v>2</v>
       </c>
-      <c r="H281">
+      <c r="I281">
         <v>11.8</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -9558,19 +10409,22 @@
         <v>576</v>
       </c>
       <c r="E282">
+        <v>100</v>
+      </c>
+      <c r="F282">
         <v>411</v>
       </c>
-      <c r="F282">
+      <c r="G282">
         <v>77.489999999999995</v>
       </c>
-      <c r="G282">
+      <c r="H282">
         <v>1.96</v>
       </c>
-      <c r="H282">
+      <c r="I282">
         <v>10.37</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -9584,19 +10438,22 @@
         <v>578</v>
       </c>
       <c r="E283">
+        <v>100</v>
+      </c>
+      <c r="F283">
         <v>446</v>
       </c>
-      <c r="F283">
+      <c r="G283">
         <v>79.599999999999994</v>
       </c>
-      <c r="G283">
+      <c r="H283">
         <v>7.8</v>
       </c>
-      <c r="H283">
+      <c r="I283">
         <v>10.7</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -9610,19 +10467,22 @@
         <v>580</v>
       </c>
       <c r="E284">
+        <v>100</v>
+      </c>
+      <c r="F284">
         <v>334</v>
       </c>
-      <c r="F284">
+      <c r="G284">
         <v>74.599999999999994</v>
       </c>
-      <c r="G284">
+      <c r="H284">
         <v>8.1</v>
       </c>
-      <c r="H284">
+      <c r="I284">
         <v>0.3</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -9636,19 +10496,22 @@
         <v>582</v>
       </c>
       <c r="E285">
+        <v>100</v>
+      </c>
+      <c r="F285">
         <v>246</v>
       </c>
-      <c r="F285">
+      <c r="G285">
         <v>52.65</v>
       </c>
-      <c r="G285">
+      <c r="H285">
         <v>4.8099999999999996</v>
       </c>
-      <c r="H285">
+      <c r="I285">
         <v>1.75</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -9662,19 +10525,22 @@
         <v>584</v>
       </c>
       <c r="E286">
+        <v>100</v>
+      </c>
+      <c r="F286">
         <v>237</v>
       </c>
-      <c r="F286">
+      <c r="G286">
         <v>51.1</v>
       </c>
-      <c r="G286">
+      <c r="H286">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H286">
+      <c r="I286">
         <v>1.8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -9688,19 +10554,22 @@
         <v>586</v>
       </c>
       <c r="E287">
+        <v>100</v>
+      </c>
+      <c r="F287">
         <v>223</v>
       </c>
-      <c r="F287">
+      <c r="G287">
         <v>47.4</v>
       </c>
-      <c r="G287">
+      <c r="H287">
         <v>5.7</v>
       </c>
-      <c r="H287">
+      <c r="I287">
         <v>1.2</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -9714,19 +10583,22 @@
         <v>588</v>
       </c>
       <c r="E288">
+        <v>100</v>
+      </c>
+      <c r="F288">
         <v>244</v>
       </c>
-      <c r="F288">
+      <c r="G288">
         <v>52.3</v>
       </c>
-      <c r="G288">
+      <c r="H288">
         <v>3.7</v>
       </c>
-      <c r="H288">
+      <c r="I288">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -9740,19 +10612,22 @@
         <v>590</v>
       </c>
       <c r="E289">
+        <v>100</v>
+      </c>
+      <c r="F289">
         <v>202</v>
       </c>
-      <c r="F289">
+      <c r="G289">
         <v>44.8</v>
       </c>
-      <c r="G289">
+      <c r="H289">
         <v>4.2</v>
       </c>
-      <c r="H289">
+      <c r="I289">
         <v>0.9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -9766,19 +10641,22 @@
         <v>592</v>
       </c>
       <c r="E290">
+        <v>100</v>
+      </c>
+      <c r="F290">
         <v>231</v>
       </c>
-      <c r="F290">
+      <c r="G290">
         <v>49.69</v>
       </c>
-      <c r="G290">
+      <c r="H290">
         <v>5.52</v>
       </c>
-      <c r="H290">
+      <c r="I290">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -9792,19 +10670,22 @@
         <v>594</v>
       </c>
       <c r="E291">
+        <v>100</v>
+      </c>
+      <c r="F291">
         <v>181</v>
       </c>
-      <c r="F291">
+      <c r="G291">
         <v>37.630000000000003</v>
       </c>
-      <c r="G291">
+      <c r="H291">
         <v>6.63</v>
       </c>
-      <c r="H291">
+      <c r="I291">
         <v>0.41</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -9818,19 +10699,22 @@
         <v>596</v>
       </c>
       <c r="E292">
+        <v>100</v>
+      </c>
+      <c r="F292">
         <v>296</v>
       </c>
-      <c r="F292">
+      <c r="G292">
         <v>57.1</v>
       </c>
-      <c r="G292">
+      <c r="H292">
         <v>5</v>
       </c>
-      <c r="H292">
+      <c r="I292">
         <v>5.3</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -9844,19 +10728,22 @@
         <v>598</v>
       </c>
       <c r="E293">
+        <v>100</v>
+      </c>
+      <c r="F293">
         <v>348</v>
       </c>
-      <c r="F293">
+      <c r="G293">
         <v>72.66</v>
       </c>
-      <c r="G293">
+      <c r="H293">
         <v>9.56</v>
       </c>
-      <c r="H293">
+      <c r="I293">
         <v>3.26</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -9870,19 +10757,22 @@
         <v>600</v>
       </c>
       <c r="E294">
+        <v>100</v>
+      </c>
+      <c r="F294">
         <v>360</v>
       </c>
-      <c r="F294">
+      <c r="G294">
         <v>73.900000000000006</v>
       </c>
-      <c r="G294">
+      <c r="H294">
         <v>8.5</v>
       </c>
-      <c r="H294">
+      <c r="I294">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -9896,19 +10786,22 @@
         <v>602</v>
       </c>
       <c r="E295">
+        <v>100</v>
+      </c>
+      <c r="F295">
         <v>351</v>
       </c>
-      <c r="F295">
+      <c r="G295">
         <v>75.8</v>
       </c>
-      <c r="G295">
+      <c r="H295">
         <v>8.5</v>
       </c>
-      <c r="H295">
+      <c r="I295">
         <v>1.6</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -9922,19 +10815,22 @@
         <v>604</v>
       </c>
       <c r="E296">
+        <v>100</v>
+      </c>
+      <c r="F296">
         <v>290</v>
       </c>
-      <c r="F296">
+      <c r="G296">
         <v>70.7</v>
       </c>
-      <c r="G296">
+      <c r="H296">
         <v>15.9</v>
       </c>
-      <c r="H296">
+      <c r="I296">
         <v>1.5</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -9948,20 +10844,24 @@
         <v>606</v>
       </c>
       <c r="E297">
+        <v>100</v>
+      </c>
+      <c r="F297">
         <v>264</v>
       </c>
-      <c r="F297">
+      <c r="G297">
         <v>52.7</v>
       </c>
-      <c r="G297">
+      <c r="H297">
         <v>8.4</v>
       </c>
-      <c r="H297">
+      <c r="I297">
         <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>